--- a/Ódor Artúr/OKTV/Furge_Fazek.xlsx
+++ b/Ódor Artúr/OKTV/Furge_Fazek.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c21c437aeb2245f/Dokumentumok/fakt2025/Ódor Artúr/OKTV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Artúr\fakt2025\Ódor Artúr\OKTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{A7E9F509-BC8A-4610-98BA-FCF4DDD3F0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59BE9CF8-CADA-46EB-819C-8201147FEC33}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0A7CD3-1E5E-467D-93EA-DC8CDDAA89C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DFE71DF4-143F-4B79-A23C-F7D1E00CCEEB}"/>
   </bookViews>
   <sheets>
-    <sheet name="RendelésekÉtel neve;Mennyisége;" sheetId="1" r:id="rId1"/>
+    <sheet name="Rendelések" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,14 +36,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -446,9 +446,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0\ &quot;Ft&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;Ft&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,20 +524,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -886,24 +879,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A204" sqref="A204"/>
+      <selection pane="bottomLeft" activeCell="A213" sqref="A213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -935,7 +928,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -969,7 +962,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
@@ -1003,7 +996,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -1037,7 +1030,7 @@
         <v>18700</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>68</v>
       </c>
@@ -1071,7 +1064,7 @@
         <v>23375</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +1098,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1139,7 +1132,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1173,7 +1166,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1207,7 +1200,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -1241,7 +1234,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -1275,7 +1268,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>81</v>
       </c>
@@ -1309,7 +1302,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1343,7 +1336,7 @@
         <v>22950</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1377,7 +1370,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1411,7 +1404,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1445,7 +1438,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1479,7 +1472,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1513,7 +1506,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1547,7 +1540,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>90</v>
       </c>
@@ -1581,7 +1574,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1615,7 +1608,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>90</v>
       </c>
@@ -1649,7 +1642,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>91</v>
       </c>
@@ -1683,7 +1676,7 @@
         <v>18700</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1717,7 +1710,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1751,7 +1744,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1785,7 +1778,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="2" t="s">
         <v>96</v>
       </c>
@@ -1819,7 +1812,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" thickBot="1">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1853,7 +1846,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15" thickBot="1">
       <c r="A29" s="2" t="s">
         <v>97</v>
       </c>
@@ -1887,7 +1880,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" thickBot="1">
       <c r="A30" s="2" t="s">
         <v>98</v>
       </c>
@@ -1921,7 +1914,7 @@
         <v>20825</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15" thickBot="1">
       <c r="A31" s="2" t="s">
         <v>101</v>
       </c>
@@ -1955,7 +1948,7 @@
         <v>21675</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" thickBot="1">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -1989,7 +1982,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15" thickBot="1">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2023,7 +2016,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15" thickBot="1">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2057,7 +2050,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15" thickBot="1">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -2091,7 +2084,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15" thickBot="1">
       <c r="A36" s="2" t="s">
         <v>105</v>
       </c>
@@ -2125,7 +2118,7 @@
         <v>18700</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15" thickBot="1">
       <c r="A37" s="2" t="s">
         <v>81</v>
       </c>
@@ -2159,7 +2152,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15" thickBot="1">
       <c r="A38" s="2" t="s">
         <v>106</v>
       </c>
@@ -2193,7 +2186,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15" thickBot="1">
       <c r="A39" s="2" t="s">
         <v>20</v>
       </c>
@@ -2227,7 +2220,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15" thickBot="1">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
@@ -2261,7 +2254,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15" thickBot="1">
       <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
@@ -2295,7 +2288,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15" thickBot="1">
       <c r="A42" s="2" t="s">
         <v>36</v>
       </c>
@@ -2329,7 +2322,7 @@
         <v>19550</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15" thickBot="1">
       <c r="A43" s="2" t="s">
         <v>37</v>
       </c>
@@ -2363,7 +2356,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15" thickBot="1">
       <c r="A44" s="2" t="s">
         <v>38</v>
       </c>
@@ -2397,7 +2390,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15" thickBot="1">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
@@ -2431,7 +2424,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15" thickBot="1">
       <c r="A46" s="2" t="s">
         <v>39</v>
       </c>
@@ -2465,7 +2458,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="15" thickBot="1">
       <c r="A47" s="2" t="s">
         <v>40</v>
       </c>
@@ -2499,7 +2492,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15" thickBot="1">
       <c r="A48" s="2" t="s">
         <v>80</v>
       </c>
@@ -2533,7 +2526,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
         <v>41</v>
       </c>
@@ -2567,7 +2560,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15" thickBot="1">
       <c r="A50" s="2" t="s">
         <v>80</v>
       </c>
@@ -2601,7 +2594,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15" thickBot="1">
       <c r="A51" s="2" t="s">
         <v>107</v>
       </c>
@@ -2635,7 +2628,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15" thickBot="1">
       <c r="A52" s="2" t="s">
         <v>108</v>
       </c>
@@ -2669,7 +2662,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15" thickBot="1">
       <c r="A53" s="2" t="s">
         <v>27</v>
       </c>
@@ -2703,7 +2696,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
@@ -2737,7 +2730,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15" thickBot="1">
       <c r="A55" s="2" t="s">
         <v>43</v>
       </c>
@@ -2771,7 +2764,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="15" thickBot="1">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -2805,7 +2798,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15" thickBot="1">
       <c r="A57" s="2" t="s">
         <v>109</v>
       </c>
@@ -2839,7 +2832,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="15" thickBot="1">
       <c r="A58" s="2" t="s">
         <v>110</v>
       </c>
@@ -2873,7 +2866,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="15" thickBot="1">
       <c r="A59" s="2" t="s">
         <v>40</v>
       </c>
@@ -2907,7 +2900,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="15" thickBot="1">
       <c r="A60" s="2" t="s">
         <v>42</v>
       </c>
@@ -2941,7 +2934,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15" thickBot="1">
       <c r="A61" s="2" t="s">
         <v>109</v>
       </c>
@@ -2975,7 +2968,7 @@
         <v>19975</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="15" thickBot="1">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
@@ -3009,7 +3002,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="15" thickBot="1">
       <c r="A63" s="2" t="s">
         <v>44</v>
       </c>
@@ -3043,7 +3036,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="15" thickBot="1">
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
@@ -3077,7 +3070,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="15" thickBot="1">
       <c r="A65" s="2" t="s">
         <v>15</v>
       </c>
@@ -3111,7 +3104,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="15" thickBot="1">
       <c r="A66" s="2" t="s">
         <v>111</v>
       </c>
@@ -3145,7 +3138,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="15" thickBot="1">
       <c r="A67" s="2" t="s">
         <v>91</v>
       </c>
@@ -3179,7 +3172,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="15" thickBot="1">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -3213,7 +3206,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="15" thickBot="1">
       <c r="A69" s="2" t="s">
         <v>30</v>
       </c>
@@ -3247,7 +3240,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="15" thickBot="1">
       <c r="A70" s="2" t="s">
         <v>97</v>
       </c>
@@ -3281,7 +3274,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="15" thickBot="1">
       <c r="A71" s="2" t="s">
         <v>6</v>
       </c>
@@ -3315,7 +3308,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="15" thickBot="1">
       <c r="A72" s="2" t="s">
         <v>45</v>
       </c>
@@ -3349,7 +3342,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="15" thickBot="1">
       <c r="A73" s="2" t="s">
         <v>7</v>
       </c>
@@ -3383,7 +3376,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="15" thickBot="1">
       <c r="A74" s="2" t="s">
         <v>15</v>
       </c>
@@ -3417,7 +3410,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15" thickBot="1">
       <c r="A75" s="2" t="s">
         <v>32</v>
       </c>
@@ -3451,7 +3444,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="15" thickBot="1">
       <c r="A76" s="2" t="s">
         <v>112</v>
       </c>
@@ -3485,7 +3478,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="15" thickBot="1">
       <c r="A77" s="2" t="s">
         <v>98</v>
       </c>
@@ -3519,7 +3512,7 @@
         <v>20825</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15" thickBot="1">
       <c r="A78" s="2" t="s">
         <v>18</v>
       </c>
@@ -3553,7 +3546,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15" thickBot="1">
       <c r="A79" s="2" t="s">
         <v>18</v>
       </c>
@@ -3587,7 +3580,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="15" thickBot="1">
       <c r="A80" s="2" t="s">
         <v>42</v>
       </c>
@@ -3621,7 +3614,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="15" thickBot="1">
       <c r="A81" s="2" t="s">
         <v>36</v>
       </c>
@@ -3655,7 +3648,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="15" thickBot="1">
       <c r="A82" s="2" t="s">
         <v>23</v>
       </c>
@@ -3689,7 +3682,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="15" thickBot="1">
       <c r="A83" s="2" t="s">
         <v>16</v>
       </c>
@@ -3723,7 +3716,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="15" thickBot="1">
       <c r="A84" s="2" t="s">
         <v>46</v>
       </c>
@@ -3757,7 +3750,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="15" thickBot="1">
       <c r="A85" s="2" t="s">
         <v>105</v>
       </c>
@@ -3791,7 +3784,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="15" thickBot="1">
       <c r="A86" s="2" t="s">
         <v>113</v>
       </c>
@@ -3825,7 +3818,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="15" thickBot="1">
       <c r="A87" s="2" t="s">
         <v>27</v>
       </c>
@@ -3859,7 +3852,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="15" thickBot="1">
       <c r="A88" s="2" t="s">
         <v>47</v>
       </c>
@@ -3893,7 +3886,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="15" thickBot="1">
       <c r="A89" s="2" t="s">
         <v>114</v>
       </c>
@@ -3927,7 +3920,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="15" thickBot="1">
       <c r="A90" s="2" t="s">
         <v>22</v>
       </c>
@@ -3961,7 +3954,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="15" thickBot="1">
       <c r="A91" s="2" t="s">
         <v>39</v>
       </c>
@@ -3995,7 +3988,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="15" thickBot="1">
       <c r="A92" s="2" t="s">
         <v>30</v>
       </c>
@@ -4029,7 +4022,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="15" thickBot="1">
       <c r="A93" s="2" t="s">
         <v>18</v>
       </c>
@@ -4063,7 +4056,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="15" thickBot="1">
       <c r="A94" s="2" t="s">
         <v>105</v>
       </c>
@@ -4097,7 +4090,7 @@
         <v>18700</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="15" thickBot="1">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -4131,7 +4124,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="15" thickBot="1">
       <c r="A96" s="2" t="s">
         <v>22</v>
       </c>
@@ -4165,7 +4158,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="15" thickBot="1">
       <c r="A97" s="2" t="s">
         <v>97</v>
       </c>
@@ -4199,7 +4192,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="15" thickBot="1">
       <c r="A98" s="2" t="s">
         <v>104</v>
       </c>
@@ -4233,7 +4226,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="15" thickBot="1">
       <c r="A99" s="2" t="s">
         <v>115</v>
       </c>
@@ -4267,7 +4260,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="15" thickBot="1">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
@@ -4301,7 +4294,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="15" thickBot="1">
       <c r="A101" s="2" t="s">
         <v>65</v>
       </c>
@@ -4335,7 +4328,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="15" thickBot="1">
       <c r="A102" s="2" t="s">
         <v>108</v>
       </c>
@@ -4369,7 +4362,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="15" thickBot="1">
       <c r="A103" s="2" t="s">
         <v>25</v>
       </c>
@@ -4403,7 +4396,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="15" thickBot="1">
       <c r="A104" s="2" t="s">
         <v>7</v>
       </c>
@@ -4437,7 +4430,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="15" thickBot="1">
       <c r="A105" s="2" t="s">
         <v>108</v>
       </c>
@@ -4471,7 +4464,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="15" thickBot="1">
       <c r="A106" s="2" t="s">
         <v>97</v>
       </c>
@@ -4505,7 +4498,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="15" thickBot="1">
       <c r="A107" s="2" t="s">
         <v>2</v>
       </c>
@@ -4539,7 +4532,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="15" thickBot="1">
       <c r="A108" s="2" t="s">
         <v>9</v>
       </c>
@@ -4573,7 +4566,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="15" thickBot="1">
       <c r="A109" s="2" t="s">
         <v>104</v>
       </c>
@@ -4607,7 +4600,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="15" thickBot="1">
       <c r="A110" s="2" t="s">
         <v>116</v>
       </c>
@@ -4641,7 +4634,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="15" thickBot="1">
       <c r="A111" s="2" t="s">
         <v>9</v>
       </c>
@@ -4675,7 +4668,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="15" thickBot="1">
       <c r="A112" s="2" t="s">
         <v>32</v>
       </c>
@@ -4709,7 +4702,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="15" thickBot="1">
       <c r="A113" s="2" t="s">
         <v>43</v>
       </c>
@@ -4743,7 +4736,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="15" thickBot="1">
       <c r="A114" s="2" t="s">
         <v>105</v>
       </c>
@@ -4777,7 +4770,7 @@
         <v>18700</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="15" thickBot="1">
       <c r="A115" s="2" t="s">
         <v>22</v>
       </c>
@@ -4811,7 +4804,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="15" thickBot="1">
       <c r="A116" s="2" t="s">
         <v>106</v>
       </c>
@@ -4845,7 +4838,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="15" thickBot="1">
       <c r="A117" s="2" t="s">
         <v>101</v>
       </c>
@@ -4879,7 +4872,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="15" thickBot="1">
       <c r="A118" s="2" t="s">
         <v>38</v>
       </c>
@@ -4913,7 +4906,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="15" thickBot="1">
       <c r="A119" s="2" t="s">
         <v>27</v>
       </c>
@@ -4947,7 +4940,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="15" thickBot="1">
       <c r="A120" s="2" t="s">
         <v>11</v>
       </c>
@@ -4981,7 +4974,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="15" thickBot="1">
       <c r="A121" s="2" t="s">
         <v>117</v>
       </c>
@@ -5015,7 +5008,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="15" thickBot="1">
       <c r="A122" s="2" t="s">
         <v>101</v>
       </c>
@@ -5049,7 +5042,7 @@
         <v>17340</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="15" thickBot="1">
       <c r="A123" s="2" t="s">
         <v>38</v>
       </c>
@@ -5083,7 +5076,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="15" thickBot="1">
       <c r="A124" s="2" t="s">
         <v>30</v>
       </c>
@@ -5117,7 +5110,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="15" thickBot="1">
       <c r="A125" s="2" t="s">
         <v>118</v>
       </c>
@@ -5151,7 +5144,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="15" thickBot="1">
       <c r="A126" s="2" t="s">
         <v>111</v>
       </c>
@@ -5185,7 +5178,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="15" thickBot="1">
       <c r="A127" s="2" t="s">
         <v>96</v>
       </c>
@@ -5219,7 +5212,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="15" thickBot="1">
       <c r="A128" s="2" t="s">
         <v>119</v>
       </c>
@@ -5253,7 +5246,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="15" thickBot="1">
       <c r="A129" s="2" t="s">
         <v>113</v>
       </c>
@@ -5287,7 +5280,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="15" thickBot="1">
       <c r="A130" s="2" t="s">
         <v>96</v>
       </c>
@@ -5321,7 +5314,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="15" thickBot="1">
       <c r="A131" s="2" t="s">
         <v>11</v>
       </c>
@@ -5355,7 +5348,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="15" thickBot="1">
       <c r="A132" s="2" t="s">
         <v>106</v>
       </c>
@@ -5389,7 +5382,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="15" thickBot="1">
       <c r="A133" s="2" t="s">
         <v>108</v>
       </c>
@@ -5423,7 +5416,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="15" thickBot="1">
       <c r="A134" s="2" t="s">
         <v>6</v>
       </c>
@@ -5457,7 +5450,7 @@
         <v>20400</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="15" thickBot="1">
       <c r="A135" s="2" t="s">
         <v>25</v>
       </c>
@@ -5491,7 +5484,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="15" thickBot="1">
       <c r="A136" s="2" t="s">
         <v>110</v>
       </c>
@@ -5525,7 +5518,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="15" thickBot="1">
       <c r="A137" s="2" t="s">
         <v>48</v>
       </c>
@@ -5559,7 +5552,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="15" thickBot="1">
       <c r="A138" s="2" t="s">
         <v>36</v>
       </c>
@@ -5593,7 +5586,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="15" thickBot="1">
       <c r="A139" s="2" t="s">
         <v>40</v>
       </c>
@@ -5627,7 +5620,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="15" thickBot="1">
       <c r="A140" s="2" t="s">
         <v>16</v>
       </c>
@@ -5661,7 +5654,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="15" thickBot="1">
       <c r="A141" s="2" t="s">
         <v>116</v>
       </c>
@@ -5695,7 +5688,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="15" thickBot="1">
       <c r="A142" s="2" t="s">
         <v>65</v>
       </c>
@@ -5729,7 +5722,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="15" thickBot="1">
       <c r="A143" s="2" t="s">
         <v>116</v>
       </c>
@@ -5763,7 +5756,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="15" thickBot="1">
       <c r="A144" s="2" t="s">
         <v>49</v>
       </c>
@@ -5797,7 +5790,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="15" thickBot="1">
       <c r="A145" s="2" t="s">
         <v>120</v>
       </c>
@@ -5831,7 +5824,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="15" thickBot="1">
       <c r="A146" s="2" t="s">
         <v>111</v>
       </c>
@@ -5865,7 +5858,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="15" thickBot="1">
       <c r="A147" s="2" t="s">
         <v>68</v>
       </c>
@@ -5899,7 +5892,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="15" thickBot="1">
       <c r="A148" s="2" t="s">
         <v>50</v>
       </c>
@@ -5933,7 +5926,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="15" thickBot="1">
       <c r="A149" s="2" t="s">
         <v>51</v>
       </c>
@@ -5967,7 +5960,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="15" thickBot="1">
       <c r="A150" s="2" t="s">
         <v>52</v>
       </c>
@@ -6001,7 +5994,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="15" thickBot="1">
       <c r="A151" s="2" t="s">
         <v>29</v>
       </c>
@@ -6035,7 +6028,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="15" thickBot="1">
       <c r="A152" s="2" t="s">
         <v>53</v>
       </c>
@@ -6069,7 +6062,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="15" thickBot="1">
       <c r="A153" s="2" t="s">
         <v>51</v>
       </c>
@@ -6103,7 +6096,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="15" thickBot="1">
       <c r="A154" s="2" t="s">
         <v>118</v>
       </c>
@@ -6137,7 +6130,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="15" thickBot="1">
       <c r="A155" s="2" t="s">
         <v>81</v>
       </c>
@@ -6171,7 +6164,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="15" thickBot="1">
       <c r="A156" s="2" t="s">
         <v>106</v>
       </c>
@@ -6205,7 +6198,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" ht="15" thickBot="1">
       <c r="A157" s="2" t="s">
         <v>11</v>
       </c>
@@ -6239,7 +6232,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" ht="15" thickBot="1">
       <c r="A158" s="2" t="s">
         <v>121</v>
       </c>
@@ -6273,7 +6266,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="15" thickBot="1">
       <c r="A159" s="2" t="s">
         <v>15</v>
       </c>
@@ -6307,7 +6300,7 @@
         <v>22950</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="15" thickBot="1">
       <c r="A160" s="2" t="s">
         <v>22</v>
       </c>
@@ -6341,7 +6334,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="15" thickBot="1">
       <c r="A161" s="2" t="s">
         <v>7</v>
       </c>
@@ -6375,7 +6368,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="15" thickBot="1">
       <c r="A162" s="2" t="s">
         <v>122</v>
       </c>
@@ -6409,7 +6402,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="15" thickBot="1">
       <c r="A163" s="2" t="s">
         <v>32</v>
       </c>
@@ -6443,7 +6436,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="15" thickBot="1">
       <c r="A164" s="2" t="s">
         <v>50</v>
       </c>
@@ -6477,7 +6470,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="15" thickBot="1">
       <c r="A165" s="2" t="s">
         <v>40</v>
       </c>
@@ -6511,7 +6504,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="15" thickBot="1">
       <c r="A166" s="2" t="s">
         <v>33</v>
       </c>
@@ -6545,7 +6538,7 @@
         <v>21675</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="15" thickBot="1">
       <c r="A167" s="2" t="s">
         <v>54</v>
       </c>
@@ -6579,7 +6572,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="15" thickBot="1">
       <c r="A168" s="2" t="s">
         <v>33</v>
       </c>
@@ -6613,7 +6606,7 @@
         <v>17340</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="15" thickBot="1">
       <c r="A169" s="2" t="s">
         <v>51</v>
       </c>
@@ -6647,7 +6640,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" ht="15" thickBot="1">
       <c r="A170" s="2" t="s">
         <v>36</v>
       </c>
@@ -6681,7 +6674,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" ht="15" thickBot="1">
       <c r="A171" s="2" t="s">
         <v>15</v>
       </c>
@@ -6715,7 +6708,7 @@
         <v>22950</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" ht="15" thickBot="1">
       <c r="A172" s="2" t="s">
         <v>30</v>
       </c>
@@ -6749,7 +6742,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" ht="15" thickBot="1">
       <c r="A173" s="2" t="s">
         <v>121</v>
       </c>
@@ -6783,7 +6776,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" ht="15" thickBot="1">
       <c r="A174" s="2" t="s">
         <v>37</v>
       </c>
@@ -6817,7 +6810,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" ht="15" thickBot="1">
       <c r="A175" s="2" t="s">
         <v>123</v>
       </c>
@@ -6851,7 +6844,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" ht="15" thickBot="1">
       <c r="A176" s="2" t="s">
         <v>107</v>
       </c>
@@ -6885,7 +6878,7 @@
         <v>19975</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="15" thickBot="1">
       <c r="A177" s="2" t="s">
         <v>27</v>
       </c>
@@ -6919,7 +6912,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" ht="15" thickBot="1">
       <c r="A178" s="2" t="s">
         <v>104</v>
       </c>
@@ -6953,7 +6946,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="15" thickBot="1">
       <c r="A179" s="2" t="s">
         <v>36</v>
       </c>
@@ -6987,7 +6980,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="15" thickBot="1">
       <c r="A180" s="2" t="s">
         <v>68</v>
       </c>
@@ -7021,7 +7014,7 @@
         <v>18700</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="15" thickBot="1">
       <c r="A181" s="2" t="s">
         <v>55</v>
       </c>
@@ -7055,7 +7048,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="15" thickBot="1">
       <c r="A182" s="2" t="s">
         <v>108</v>
       </c>
@@ -7089,7 +7082,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="15" thickBot="1">
       <c r="A183" s="2" t="s">
         <v>123</v>
       </c>
@@ -7123,7 +7116,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="15" thickBot="1">
       <c r="A184" s="2" t="s">
         <v>65</v>
       </c>
@@ -7157,7 +7150,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" ht="15" thickBot="1">
       <c r="A185" s="2" t="s">
         <v>114</v>
       </c>
@@ -7191,7 +7184,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" ht="15" thickBot="1">
       <c r="A186" s="2" t="s">
         <v>38</v>
       </c>
@@ -7225,7 +7218,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" ht="15" thickBot="1">
       <c r="A187" s="2" t="s">
         <v>119</v>
       </c>
@@ -7259,7 +7252,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="15" thickBot="1">
       <c r="A188" s="2" t="s">
         <v>56</v>
       </c>
@@ -7293,7 +7286,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" ht="15" thickBot="1">
       <c r="A189" s="2" t="s">
         <v>40</v>
       </c>
@@ -7327,7 +7320,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" ht="15" thickBot="1">
       <c r="A190" s="2" t="s">
         <v>104</v>
       </c>
@@ -7361,7 +7354,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="15" thickBot="1">
       <c r="A191" s="2" t="s">
         <v>37</v>
       </c>
@@ -7395,7 +7388,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" ht="15" thickBot="1">
       <c r="A192" s="2" t="s">
         <v>20</v>
       </c>
@@ -7429,7 +7422,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" ht="15" thickBot="1">
       <c r="A193" s="2" t="s">
         <v>42</v>
       </c>
@@ -7463,7 +7456,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" ht="15" thickBot="1">
       <c r="A194" s="2" t="s">
         <v>105</v>
       </c>
@@ -7497,7 +7490,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" ht="15" thickBot="1">
       <c r="A195" s="2" t="s">
         <v>56</v>
       </c>
@@ -7531,7 +7524,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" ht="15" thickBot="1">
       <c r="A196" s="2" t="s">
         <v>65</v>
       </c>
@@ -7565,7 +7558,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" ht="15" thickBot="1">
       <c r="A197" s="2" t="s">
         <v>77</v>
       </c>
@@ -7599,7 +7592,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" ht="15" thickBot="1">
       <c r="A198" s="2" t="s">
         <v>65</v>
       </c>
@@ -7633,7 +7626,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" ht="15" thickBot="1">
       <c r="A199" s="2" t="s">
         <v>109</v>
       </c>
@@ -7667,7 +7660,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" ht="15" thickBot="1">
       <c r="A200" s="2" t="s">
         <v>108</v>
       </c>
@@ -7701,7 +7694,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" ht="15" thickBot="1">
       <c r="A201" s="2" t="s">
         <v>45</v>
       </c>
@@ -7735,12 +7728,12 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10">
       <c r="A204" s="3" t="str" cm="1">
         <f t="array" ref="A204">INDEX(D2:D201,MATCH(MAX(I2:I201),I2:I201,0),0)</f>
         <v>Orsós Márk</v>
